--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2684.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2684.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.16173181259541</v>
+        <v>0.8249614238739014</v>
       </c>
       <c r="B1">
-        <v>2.420468287874744</v>
+        <v>1.147810697555542</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.99462366104126</v>
       </c>
       <c r="D1">
-        <v>2.331753501375373</v>
+        <v>4.536254405975342</v>
       </c>
       <c r="E1">
-        <v>1.214698109693487</v>
+        <v>2.19387412071228</v>
       </c>
     </row>
   </sheetData>
